--- a/doc/数据产品建表需求文档模板v1.1.xlsx
+++ b/doc/数据产品建表需求文档模板v1.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB54F9C1-A4D2-4288-9D46-C73DEA60DF9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A25E689-D892-474C-BBB1-5CF65C9A2FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="157">
   <si>
     <t>eid</t>
   </si>
@@ -350,31 +350,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>警告:本文档中所包含的信息属于商业机密，如无上海合合信息科技发展有限公司的书面许可，任何人都无权复制或利用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适用范围：本模板适用于启信宝底层数据库规划文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实施日期：2020年4月1日起规划涉及的所有底层数据库表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档的保存：文档必须存放于基础数据部confluence地址，以备后续查看使用；每次更新覆盖，保留最新信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>char(36)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表规划规范：涉及索引、表名、字段名等信息的要求；具体详见《【机密】- 企业数据标准规范（试行）》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：常用字段规范的说明，详见具体详见《【机密】- 企业数据标准规范（试行）》，如有冲突以标准规范文档为准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -658,6 +634,22 @@
   <si>
     <t>36,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告:本文档中所包含的信息属于商业机密，如无智慧芽信息科技(苏州)有限公司的书面许可，任何人都无权复制或利用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用范围：本模板适用于智慧芽 PDC 数据库规划文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施日期：2021年6月25日起规划涉及的所有数据库表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档的保存：文档必须存放于 PDC Confluence 地址，以备后续查看使用；每次更新覆盖，保留最新信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1714,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1779,7 +1771,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="10"/>
       <c r="H5" s="35" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="I5" s="34"/>
     </row>
@@ -1790,7 +1782,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="10"/>
       <c r="H6" s="35" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="I6" s="34"/>
     </row>
@@ -1812,7 +1804,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="H8" s="35" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="I8" s="34"/>
     </row>
@@ -1822,9 +1814,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
-      <c r="H9" s="35" t="s">
-        <v>88</v>
-      </c>
+      <c r="H9" s="35"/>
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" ht="14.25">
@@ -1872,7 +1862,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="33" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1895,7 +1885,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2017,7 +2007,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2072,7 +2062,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="45" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="46"/>
@@ -2103,34 +2093,34 @@
         <v>11</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H7" s="48" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L7" s="48" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M7" s="48" t="s">
         <v>12</v>
@@ -2157,7 +2147,7 @@
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F8" s="55">
         <v>20</v>
@@ -2167,16 +2157,16 @@
       </c>
       <c r="H8" s="49"/>
       <c r="I8" s="49" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K8" s="49" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M8" s="49"/>
       <c r="N8" s="49"/>
@@ -2211,11 +2201,11 @@
         <v>4</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="49" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F10" s="55">
         <v>20</v>
@@ -2225,7 +2215,7 @@
       <c r="I10" s="49"/>
       <c r="J10" s="40"/>
       <c r="K10" s="40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L10" s="40" t="s">
         <v>13</v>
@@ -2243,11 +2233,11 @@
         <v>59</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="49" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F11" s="55">
         <v>3</v>
@@ -2259,7 +2249,7 @@
       <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L11" s="40" t="s">
         <v>13</v>
@@ -2279,11 +2269,11 @@
         <v>62</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F12" s="55">
         <v>20</v>
@@ -2295,7 +2285,7 @@
       <c r="I12" s="49"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L12" s="40" t="s">
         <v>13</v>
@@ -2313,23 +2303,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="49" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F13" s="55"/>
       <c r="G13" s="49"/>
       <c r="H13" s="40" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I13" s="49"/>
       <c r="J13" s="40" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K13" s="40" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L13" s="40" t="s">
         <v>13</v>
@@ -2629,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2642,9 +2632,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="27" t="s">
-        <v>89</v>
-      </c>
+      <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -2930,7 +2918,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="20"/>
@@ -3396,7 +3384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65875AC2-027B-4B03-AADE-E81E2AE8229D}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3435,7 +3423,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>20</v>
@@ -3454,7 +3442,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="45" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="46"/>
@@ -3462,10 +3450,10 @@
     <row r="5" spans="1:16" ht="115.5">
       <c r="A5" s="46"/>
       <c r="B5" s="63" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3489,34 +3477,34 @@
         <v>11</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J7" s="56" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L7" s="48" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M7" s="48" t="s">
         <v>12</v>
@@ -3533,23 +3521,23 @@
     </row>
     <row r="8" spans="1:16" s="61" customFormat="1" ht="33">
       <c r="A8" s="59" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
       <c r="E8" s="60" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="60" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H8" s="60"/>
       <c r="I8" s="60" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J8" s="60"/>
       <c r="K8" s="60"/>
@@ -3571,7 +3559,7 @@
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F9" s="55">
         <v>20</v>
@@ -3581,16 +3569,16 @@
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="49" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M9" s="49"/>
       <c r="N9" s="49"/>
@@ -3602,17 +3590,17 @@
         <v>2</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="49" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="49"/>
@@ -3633,11 +3621,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="49" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F11" s="55">
         <v>20</v>
@@ -3647,7 +3635,7 @@
       <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L11" s="40" t="s">
         <v>13</v>
@@ -3665,11 +3653,11 @@
         <v>59</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="49" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F12" s="55">
         <v>3</v>
@@ -3681,7 +3669,7 @@
       <c r="I12" s="49"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L12" s="40" t="s">
         <v>13</v>
@@ -3701,11 +3689,11 @@
         <v>62</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F13" s="55">
         <v>20</v>
@@ -3717,7 +3705,7 @@
       <c r="I13" s="49"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L13" s="40" t="s">
         <v>13</v>
@@ -3735,23 +3723,23 @@
         <v>9</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="49" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F14" s="55"/>
       <c r="G14" s="49"/>
       <c r="H14" s="40" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I14" s="49"/>
       <c r="J14" s="40" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L14" s="40" t="s">
         <v>13</v>
@@ -4063,105 +4051,105 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="51" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5">
       <c r="A2" s="38" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="52" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D3" s="47"/>
     </row>
     <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="52" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="42" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="43" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="52" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="52" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="52" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="42" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:4" ht="16.5">
       <c r="A8" s="43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="42" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D8" s="47"/>
     </row>
     <row r="9" spans="1:4" ht="16.5">
       <c r="A9" s="38" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D9" s="47"/>
     </row>
     <row r="10" spans="1:4" ht="16.5">
       <c r="A10" s="43" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -4169,7 +4157,7 @@
     </row>
     <row r="11" spans="1:4" ht="16.5">
       <c r="A11" s="43" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -4177,7 +4165,7 @@
     </row>
     <row r="12" spans="1:4" ht="16.5">
       <c r="A12" s="52" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -4185,7 +4173,7 @@
     </row>
     <row r="13" spans="1:4" ht="16.5">
       <c r="A13" s="38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -4193,7 +4181,7 @@
     </row>
     <row r="14" spans="1:4" ht="16.5">
       <c r="A14" s="38" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -4201,7 +4189,7 @@
     </row>
     <row r="15" spans="1:4" ht="16.5">
       <c r="A15" s="38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
@@ -4209,7 +4197,7 @@
     </row>
     <row r="16" spans="1:4" ht="16.5">
       <c r="A16" s="52" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
@@ -4217,7 +4205,7 @@
     </row>
     <row r="17" spans="1:4" ht="16.5">
       <c r="A17" s="43" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -4225,7 +4213,7 @@
     </row>
     <row r="18" spans="1:4" ht="16.5">
       <c r="A18" s="38" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -4233,7 +4221,7 @@
     </row>
     <row r="19" spans="1:4" ht="16.5">
       <c r="A19" s="52" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -4241,7 +4229,7 @@
     </row>
     <row r="20" spans="1:4" ht="16.5">
       <c r="A20" s="43" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -4249,7 +4237,7 @@
     </row>
     <row r="21" spans="1:4" ht="16.5">
       <c r="A21" s="52" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -4257,7 +4245,7 @@
     </row>
     <row r="22" spans="1:4" ht="16.5">
       <c r="A22" s="38" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -4265,7 +4253,7 @@
     </row>
     <row r="23" spans="1:4" ht="16.5">
       <c r="A23" s="52" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -4273,7 +4261,7 @@
     </row>
     <row r="24" spans="1:4" ht="16.5">
       <c r="A24" s="52" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -4281,7 +4269,7 @@
     </row>
     <row r="25" spans="1:4" ht="16.5">
       <c r="A25" s="52" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
